--- a/laravel-backend/storage/templates/summary_report.xlsx
+++ b/laravel-backend/storage/templates/summary_report.xlsx
@@ -8,24 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\denr_inv\laravel-backend\storage\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1ECE0A-CBC3-4AB3-9FC3-60D17D030426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{060A7B10-B510-44D9-BB24-A342EBC79D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$11</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Equipment Type</t>
   </si>
   <si>
     <t>2021 Below</t>
+  </si>
+  <si>
+    <t>Office:</t>
+  </si>
+  <si>
+    <t>Generated Date:</t>
+  </si>
+  <si>
+    <t>DEPARTMENT OF ENVIRONMENT AND NATURAL RESOURCES (DENR)</t>
+  </si>
+  <si>
+    <t>REGION 4A (CALABARZON)</t>
   </si>
 </sst>
 </file>
@@ -87,11 +102,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -108,6 +132,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>141514</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>664834</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06974DD9-8842-C54A-8908-F27AEBE4FE4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="141514" y="32657"/>
+          <a:ext cx="523320" cy="522514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -431,9 +510,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ1"/>
+  <dimension ref="A2:AJ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -458,27 +539,71 @@
     <col min="36" max="36" width="35" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B7" s="2">
         <v>2025</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C7" s="2">
         <v>2024</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D7" s="2">
         <v>2023</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E7" s="2">
         <v>2022</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>